--- a/옵션_상품상세정보.xlsx
+++ b/옵션_상품상세정보.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,73 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>코스트코 암앤해머 베이킹소다 6.12kg 또는 대용량 과탄산소다 5kg</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/dokkaebistore/products/4894483394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>50002499</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29000</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CJ대한통운</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://shop-phinf.pstatic.net/20210623_188/1624427879247NpnXX_JPEG/25563767956443132_512078513.jpg</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['https://shop-phinf.pstatic.net/20210623_156/1624427924086tofHw_JPEG/25563812780216444_1059691879.jpg', 'https://shop-phinf.pstatic.net/20210623_205/1624427935744xRzlX_JPEG/25563824338432911_1737463909.jpg', 'https://shop-phinf.pstatic.net/20210623_200/162442794255578PaP_JPEG/25563831232199970_502121990.jpg', 'https://shop-phinf.pstatic.net/20210623_49/1624427947247p1MmG_JPEG/25563835941822135_2118464238.jpg']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['https://shop-phinf.pstatic.net/20200416_239/1587004570199Nqabb_JPEG/detail02.jpg', 'https://shop-phinf.pstatic.net/20200910_292/1599716384942mG9TP_JPEG/20200910_143923.jpg', 'https://shop-phinf.pstatic.net/20200910_264/1599716532931G1gmW_JPEG/과탄산소다.jpg']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>선택사항;</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>베이킹소다 2개;베이킹소다 1개+과탄산소다 1개;과탄산소다 2개;</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0;8000;10000;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
